--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value134.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value134.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9295136838269631</v>
+        <v>0.6822801232337952</v>
       </c>
       <c r="B1">
-        <v>1.732738344611365</v>
+        <v>3.386894464492798</v>
       </c>
       <c r="C1">
-        <v>3.478875465075049</v>
+        <v>3.675288915634155</v>
       </c>
       <c r="D1">
-        <v>2.538126008978602</v>
+        <v>1.097281932830811</v>
       </c>
       <c r="E1">
-        <v>1.052265605554362</v>
+        <v>0.9883050322532654</v>
       </c>
     </row>
   </sheetData>
